--- a/models/table_b4-7.xlsx
+++ b/models/table_b4-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="157">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -109,55 +109,55 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1721            </t>
+    <t xml:space="preserve">1728            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2476          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0540         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0165          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.72          </t>
+    <t xml:space="preserve">0.2477          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1010         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0129          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.23          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0685***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0078)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1132*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0592)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0673         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0698)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1687         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1026)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3350**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1528)        </t>
+    <t xml:space="preserve">0.0642***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0073)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1130*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0590)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0676         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0699)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1724*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1042)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3346**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1520)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
@@ -166,289 +166,295 @@
     <t xml:space="preserve">0.2525          </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0653         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0085          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.496          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0692***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1138**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0578)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0682         </t>
+    <t xml:space="preserve">-0.1163         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0046          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.832          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0650***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1137**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0577)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0686         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0702)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1628         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1023)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3343**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1478)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0354***      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0123)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0164          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0142)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4448          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6788          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6508          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">170.22          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0613***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0046)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0833**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0350)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0666         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0516)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0977         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0668)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1559          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1240)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0181         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0112)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0019          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0113)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4609***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1108)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0324          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0353)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4621          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5772          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5696          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">162.16          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0602***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0051)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0477          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0378)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0830         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0535)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1296*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0710)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1165          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1358)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0130         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0114)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0033          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0118)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4111***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1115)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0040         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0260)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1276**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4554          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6213          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6063          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">157.83          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0598***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0047)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0589          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0380)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0628         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0512)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1161*        </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0701)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.1592         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1007)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3347**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1486)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0354***      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0123)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0166          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0142)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4456          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6961          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6531          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.21          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0637***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0050)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0836**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0351)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0668         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0514)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0954         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0655)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1555          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1245)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0183         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0019          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4625***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1108)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0324          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0358)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4629          </t>
+    <t xml:space="preserve">0.1302          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1263)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0148         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0105)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0008          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4327***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1166)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0118          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0296)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0762*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0423)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4590          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5982          </t>
   </si>
   <si>
     <t xml:space="preserve">0.5874          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.5719          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.12          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0625***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0055)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0478          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0379)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0827         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0533)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1269*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0696)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1164          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1365)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0130         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0033          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0118)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4122***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1120)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0034         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0269)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1265**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0512)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4563          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6351          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6083          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.85          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0623***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0052)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0591          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0380)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0630         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0510)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1138*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0688)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1299          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1271)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0149         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0105)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0008          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4339***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1168)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0128          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0307)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0757*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0420)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4599          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6102          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5895          </t>
-  </si>
-  <si>
     <t xml:space="preserve">160.18          </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0054)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0524          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0384)        </t>
+    <t xml:space="preserve">0.0599***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0049)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0522          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0383)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0707         </t>
   </si>
   <si>
-    <t xml:space="preserve">(0.0519)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1207*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1221          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1311)        </t>
+    <t xml:space="preserve">(0.0522)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.1232*        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1223          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1303)        </t>
   </si>
   <si>
     <t xml:space="preserve">-0.0138         </t>
@@ -457,28 +463,28 @@
     <t xml:space="preserve">(0.0107)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0017          </t>
+    <t xml:space="preserve">0.0018          </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0119)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.4225***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1157)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0045          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0288)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1031**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0485)        </t>
+    <t xml:space="preserve">0.4214***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.1153)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0036          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0277)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1039**        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0488)        </t>
   </si>
 </sst>
 </file>
@@ -971,13 +977,13 @@
         <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -994,13 +1000,13 @@
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1017,13 +1023,13 @@
         <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1040,13 +1046,13 @@
         <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1063,13 +1069,13 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1109,13 +1115,13 @@
         <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1132,13 +1138,13 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1155,13 +1161,13 @@
         <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1178,13 +1184,13 @@
         <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1201,13 +1207,13 @@
         <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1224,13 +1230,13 @@
         <v>75</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1247,13 +1253,13 @@
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1270,13 +1276,13 @@
         <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1293,13 +1299,13 @@
         <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1316,13 +1322,13 @@
         <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1339,13 +1345,13 @@
         <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1362,13 +1368,13 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1385,13 +1391,13 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1405,16 +1411,16 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1428,16 +1434,16 @@
         <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1451,16 +1457,16 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1474,16 +1480,16 @@
         <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1497,16 +1503,16 @@
         <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1523,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
         <v>48</v>
@@ -1546,7 +1552,7 @@
         <v>48</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
         <v>48</v>
@@ -1572,7 +1578,7 @@
         <v>48</v>
       </c>
       <c r="F32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G32" t="s">
         <v>48</v>
@@ -1595,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
         <v>48</v>
@@ -1621,7 +1627,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1644,7 +1650,7 @@
         <v>48</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/models/table_b4-7.xlsx
+++ b/models/table_b4-7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="191">
   <si>
     <t xml:space="preserve">                       </t>
   </si>
@@ -70,16 +70,19 @@
     <t xml:space="preserve">const                  </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_suffrage          </t>
+    <t xml:space="preserve">l_sy_gdp               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_xtr_urban         </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_lifeex            </t>
   </si>
   <si>
-    <t xml:space="preserve">l_sy_urban             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">l_sy_gdp               </t>
+    <t xml:space="preserve">l_sy_trnsprnt          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">l_sy_brcrcy            </t>
   </si>
   <si>
     <t xml:space="preserve">l_sy_war               </t>
@@ -94,6 +97,15 @@
     <t xml:space="preserve">l_sy_sci_state         </t>
   </si>
   <si>
+    <t xml:space="preserve">1860                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:nat               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1860:sci               </t>
+  </si>
+  <si>
     <t xml:space="preserve">l_wy_nat_world         </t>
   </si>
   <si>
@@ -109,382 +121,472 @@
     <t xml:space="preserve">PanelOLS        </t>
   </si>
   <si>
-    <t xml:space="preserve">1728            </t>
+    <t xml:space="preserve">1957            </t>
   </si>
   <si>
     <t xml:space="preserve">Clustered       </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2477          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1010         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0129          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.23          </t>
+    <t xml:space="preserve">0.6471          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5080          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5289          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">708.30          </t>
   </si>
   <si>
     <t xml:space="preserve">0.0000          </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0642***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0073)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1130*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0590)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0676         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0699)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1724*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1042)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3346**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1520)        </t>
+    <t xml:space="preserve">0.1378***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0081)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2162***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0760)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3116***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0952)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0602          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0515)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1774***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0645)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0712          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0783)        </t>
   </si>
   <si>
     <t xml:space="preserve">                </t>
   </si>
   <si>
-    <t xml:space="preserve">0.2525          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1163         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0046          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.832          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0650***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1137**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0577)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0686         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0702)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1628         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1023)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3343**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1478)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0354***      </t>
+    <t xml:space="preserve">0.6493          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5102          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5316          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">510.10          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1383***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0080)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2207***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0767)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3109***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0949)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0612          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0517)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1747***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0644)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0759          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0788)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0145         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0131)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0271*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0164)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8688          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9705          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9353          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1061.9          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1295***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0030)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0344          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0348)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0346          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0221)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0270          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0179)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0398         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0276)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0150          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0477)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0023         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0092)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0126         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0135)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8338***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0421)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0236          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0227)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0199         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0222)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0372*         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0197)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0264         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0324)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8728          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9333          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9118          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1014.8          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1274***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0034)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0141          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0365)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0015          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0168)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0216          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0217)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0329         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0018          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0452)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0026          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0094)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0117         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0130)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7427***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0522)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.655e-05      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0244)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0238         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0232)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0547***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0198)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0232         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0307)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1237***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0346)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8745          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9281          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9088          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1030.4          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1307***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0017          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0397)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0148         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0138)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0056          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0317         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0280)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0033          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0450)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0007         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0097)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0094         </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0123)        </t>
   </si>
   <si>
-    <t xml:space="preserve">0.0164          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0142)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4448          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6788          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6508          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">170.22          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0613***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0046)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0833**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0350)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0666         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0516)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0977         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0668)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1559          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1240)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0181         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0112)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0019          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0113)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4609***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1108)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0324          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0353)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4621          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5772          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5696          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">162.16          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0602***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0051)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0477          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0378)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0830         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0535)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1296*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0710)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1165          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1358)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0130         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0114)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0033          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0118)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4111***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1115)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0040         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0260)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1276**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4554          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6213          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6063          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">157.83          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0598***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0047)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0589          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0380)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0628         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0512)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1161*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0701)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1302          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1263)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0148         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0105)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0008          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4327***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1166)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0118          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0296)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0762*         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0423)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4590          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5982          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5874          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">160.18          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0599***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0049)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0522          </t>
+    <t xml:space="preserve">0.7434***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0405)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0127         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0268)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0119         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0517***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0181)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0198         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1699***       </t>
   </si>
   <si>
     <t xml:space="preserve">(0.0383)        </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0707         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0522)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.1232*        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1223          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1303)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0138         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0107)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0018          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0119)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4214***       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.1153)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0036          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0277)        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1039**        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.0488)        </t>
+    <t xml:space="preserve">0.8739          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9262          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9074          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1025.5          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1287***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0064          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0381)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0093         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0148)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0137          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0278)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0012          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0096)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0105         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0126)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7341***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0465)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0082         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0256)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0187         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0226)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0550***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0188)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0213         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0306)        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1571***       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.0366)        </t>
   </si>
 </sst>
 </file>
@@ -842,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -876,22 +978,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -899,22 +1001,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -922,22 +1024,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -945,22 +1047,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -968,22 +1070,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -991,22 +1093,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="G7" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1014,22 +1116,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1037,22 +1139,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="G9" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1060,22 +1162,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1083,22 +1185,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1106,22 +1208,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1129,22 +1231,22 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1152,22 +1254,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1175,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1198,22 +1300,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1221,22 +1323,22 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1244,22 +1346,22 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1267,22 +1369,22 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1290,22 +1392,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1313,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1336,22 +1438,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1359,22 +1461,22 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1382,22 +1484,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1405,22 +1507,22 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1428,22 +1530,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F26" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1451,22 +1553,22 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1474,22 +1576,22 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1497,22 +1599,22 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1520,22 +1622,22 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1543,22 +1645,22 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1566,22 +1668,22 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1589,22 +1691,22 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1612,22 +1714,22 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1635,22 +1737,206 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>160</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>132</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" t="s">
+        <v>54</v>
+      </c>
+      <c r="G43" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
